--- a/biology/Zoologie/Journal_of_Ethology/Journal_of_Ethology.xlsx
+++ b/biology/Zoologie/Journal_of_Ethology/Journal_of_Ethology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Journal of Ethology (abrégé en J. Ethol.) est une revue évaluée par les pairs publiée par Springer Science+Business Media et dédiée à l'éthologie. 
-Elle possède un facteur d'impact de 1,202 en 2021[1]. Le journal est lancé en 1983, par la société éthologique du Japon, dont il est la revue officielle[1].
-Le journal se concentre sur le domaine de l'éthologie au sens large, c'est-à-dire l'étude du comportement animal, mais également certaines notions d'écologie, d'évolution, de sciences environnementales et de zoologie[2].
+Elle possède un facteur d'impact de 1,202 en 2021. Le journal est lancé en 1983, par la société éthologique du Japon, dont il est la revue officielle.
+Le journal se concentre sur le domaine de l'éthologie au sens large, c'est-à-dire l'étude du comportement animal, mais également certaines notions d'écologie, d'évolution, de sciences environnementales et de zoologie.
 </t>
         </is>
       </c>
